--- a/src/test/resources/test10.xlsx
+++ b/src/test/resources/test10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo245303\Desktop\asw\citloader\citizensLoader_i3b\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Loader_i1a\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,54 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>90500084Y</t>
-  </si>
-  <si>
-    <t>C/ Federico García Lorca 2</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Torres Pardo</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>Fecha nacimiento</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
-    <t>juan@example.com</t>
-  </si>
-  <si>
-    <t>Dirección postal</t>
-  </si>
-  <si>
-    <t>NIF</t>
-  </si>
-  <si>
-    <t>pollingStation</t>
-  </si>
-  <si>
-    <t>90500081Y</t>
+    <t>jorge</t>
+  </si>
+  <si>
+    <t>18:13:14:12S</t>
+  </si>
+  <si>
+    <t>jorge@email.es</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>kind</t>
   </si>
 </sst>
 </file>
@@ -404,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,99 +393,59 @@
     <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>31330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>31330</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/test10.xlsx
+++ b/src/test/resources/test10.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Nombre</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>kind</t>
+  </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>18:15:14:12S</t>
+  </si>
+  <si>
+    <t>manuel@email.es</t>
+  </si>
+  <si>
+    <t>ID5</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,23 +441,26 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>